--- a/Modélisation/3.Dictionnaire de données/المداخيل.xlsx
+++ b/Modélisation/3.Dictionnaire de données/المداخيل.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
